--- a/ProjetTp2/Produits.xlsx
+++ b/ProjetTp2/Produits.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23790" windowHeight="10575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,16 +408,16 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -443,8 +444,8 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>7</v>
+      <c r="C2" t="n">
+        <v>7.0</v>
       </c>
       <c r="D2">
         <v>89.99</v>
@@ -460,8 +461,8 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>20</v>
+      <c r="C3" t="n">
+        <v>20.0</v>
       </c>
       <c r="D3">
         <v>259.99</v>
@@ -477,8 +478,8 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>20</v>
+      <c r="C4" t="n">
+        <v>20.0</v>
       </c>
       <c r="D4">
         <v>21.99</v>
@@ -494,8 +495,8 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>18</v>
+      <c r="C5" t="n">
+        <v>18.0</v>
       </c>
       <c r="D5">
         <v>109.99</v>
@@ -511,8 +512,8 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>9</v>
+      <c r="C6" t="n">
+        <v>9.0</v>
       </c>
       <c r="D6">
         <v>599.99</v>
@@ -528,8 +529,8 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" t="n">
+        <v>0.0</v>
       </c>
       <c r="D7">
         <v>399.99</v>
@@ -545,8 +546,8 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>101</v>
+      <c r="C8" t="n">
+        <v>101.0</v>
       </c>
       <c r="D8">
         <v>2.99</v>
@@ -562,8 +563,8 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
-        <v>4</v>
+      <c r="C9" t="n">
+        <v>4.0</v>
       </c>
       <c r="D9">
         <v>129.99</v>
@@ -579,8 +580,8 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
-        <v>10</v>
+      <c r="C10" t="n">
+        <v>10.0</v>
       </c>
       <c r="D10">
         <v>219.99</v>
@@ -596,8 +597,8 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>20</v>
+      <c r="C11" t="n">
+        <v>20.0</v>
       </c>
       <c r="D11">
         <v>49.99</v>

--- a/ProjetTp2/Produits.xlsx
+++ b/ProjetTp2/Produits.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23790" windowHeight="10575"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -68,8 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,16 +407,16 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -444,8 +443,8 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="n">
-        <v>7.0</v>
+      <c r="C2">
+        <v>7</v>
       </c>
       <c r="D2">
         <v>89.99</v>
@@ -461,8 +460,8 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>20.0</v>
+      <c r="C3">
+        <v>20</v>
       </c>
       <c r="D3">
         <v>259.99</v>
@@ -478,8 +477,8 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="n">
-        <v>20.0</v>
+      <c r="C4">
+        <v>20</v>
       </c>
       <c r="D4">
         <v>21.99</v>
@@ -495,8 +494,8 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
-        <v>18.0</v>
+      <c r="C5">
+        <v>18</v>
       </c>
       <c r="D5">
         <v>109.99</v>
@@ -512,8 +511,8 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>9.0</v>
+      <c r="C6">
+        <v>9</v>
       </c>
       <c r="D6">
         <v>599.99</v>
@@ -529,8 +528,8 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.0</v>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7">
         <v>399.99</v>
@@ -546,8 +545,8 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="n">
-        <v>101.0</v>
+      <c r="C8">
+        <v>101</v>
       </c>
       <c r="D8">
         <v>2.99</v>
@@ -563,8 +562,8 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="n">
-        <v>4.0</v>
+      <c r="C9">
+        <v>4</v>
       </c>
       <c r="D9">
         <v>129.99</v>
@@ -580,8 +579,8 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="n">
-        <v>10.0</v>
+      <c r="C10">
+        <v>10</v>
       </c>
       <c r="D10">
         <v>219.99</v>
@@ -597,8 +596,8 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="n">
-        <v>20.0</v>
+      <c r="C11">
+        <v>20</v>
       </c>
       <c r="D11">
         <v>49.99</v>
